--- a/biology/Médecine/Sillon_bicipital_latéral/Sillon_bicipital_latéral.xlsx
+++ b/biology/Médecine/Sillon_bicipital_latéral/Sillon_bicipital_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sillon_bicipital_lat%C3%A9ral</t>
+          <t>Sillon_bicipital_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon bicipital latéral (ou gouttière bicipitale externe ou sillon bicipital externe ou sillon bicipital radial) est une dépression linéaire de la face latérale du bras qui part du pli du coude oblique en haut et en externe.
 Il est formé par le muscle biceps brachial en avant et le muscle brachial et brachio-radial en dehors.
